--- a/Sheets/征兵广告.xlsx
+++ b/Sheets/征兵广告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBFFE8B-C7C0-48BE-B71E-79716FC2AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166DB40-D5B2-49F5-A86C-0012C330AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,28 +396,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -437,18 +443,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -648,19 +642,19 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型" dataDxfId="4">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="3" dataCellStyle="Note">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="Note">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="1" dataCellStyle="Note">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="Note">
       <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
@@ -942,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -952,7 +946,7 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="83.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.9140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
@@ -974,7 +968,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
@@ -994,7 +988,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1018,998 +1012,922 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="str">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <f>A4</f>
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="6" t="str">
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>我是田所浩二</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="str">
+      <c r="G4" s="6" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7" t="str">
+      <c r="G5" s="6" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="str">
+      <c r="G6" s="6" t="str">
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="str">
+      <c r="G7" s="6" t="str">
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <f>A11</f>
         <v>9</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="6" t="str">
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>24岁</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <f>A12</f>
         <v>10</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="6" t="str">
         <f>IF(NOT(ISBLANK(F9)),VLOOKUP(F9,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>是学生</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <f>A14</f>
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G10" s="6" t="str">
         <f>IF(NOT(ISBLANK(F10)),VLOOKUP(F10,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你怎么知道狗策划和他三个策划队友在招人？</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <f>A13</f>
         <v>11</v>
       </c>
-      <c r="G11" s="7" t="str">
+      <c r="G11" s="6" t="str">
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你还有什么想问的？</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="7">
         <f>A13</f>
         <v>11</v>
       </c>
-      <c r="G12" s="7" t="str">
+      <c r="G12" s="6" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你还有什么想问的？</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <f>A8</f>
         <v>6</v>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="G13" s="6" t="str">
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你今年多大了？</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7" t="str">
+      <c r="I13" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="str">
+      <c r="G14" s="6" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7" t="str">
+      <c r="I14" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <f>A16</f>
         <v>14</v>
       </c>
-      <c r="G15" s="7" t="str">
+      <c r="G15" s="6" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>谁问你了？</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="str">
+      <c r="G16" s="6" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7" t="str">
+      <c r="G17" s="6" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7" t="str">
+      <c r="I17" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7" t="str">
+      <c r="G18" s="6" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <f>A20</f>
         <v>18</v>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="G19" s="6" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你这狗策划靠谱吗</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7" t="str">
+      <c r="G20" s="6" t="str">
         <f>IF(NOT(ISBLANK(F20)),VLOOKUP(F20,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7" t="str">
+      <c r="G21" s="6" t="str">
         <f>IF(NOT(ISBLANK(F21)),VLOOKUP(F21,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7" t="str">
+      <c r="G22" s="6" t="str">
         <f>IF(NOT(ISBLANK(F22)),VLOOKUP(F22,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7" t="str">
+      <c r="G23" s="6" t="str">
         <f>IF(NOT(ISBLANK(F23)),VLOOKUP(F23,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7" t="str">
+      <c r="G24" s="6" t="str">
         <f>IF(NOT(ISBLANK(F24)),VLOOKUP(F24,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7" t="str">
+      <c r="G25" s="6" t="str">
         <f>IF(NOT(ISBLANK(F25)),VLOOKUP(F25,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7" t="str">
+      <c r="I25" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7" t="str">
+      <c r="G26" s="6" t="str">
         <f>IF(NOT(ISBLANK(F26)),VLOOKUP(F26,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7" t="str">
+      <c r="G27" s="6" t="str">
         <f>IF(NOT(ISBLANK(F27)),VLOOKUP(F27,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <f>A31</f>
         <v>29</v>
       </c>
-      <c r="G28" s="7" t="str">
+      <c r="G28" s="6" t="str">
         <f>IF(NOT(ISBLANK(F28)),VLOOKUP(F28,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>不会，反正你把数位板和键盘干出火星子了都不给策划算学分</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <f>A33</f>
         <v>31</v>
       </c>
-      <c r="G29" s="7" t="str">
+      <c r="G29" s="6" t="str">
         <f>IF(NOT(ISBLANK(F29)),VLOOKUP(F29,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>狗策划本人也会建模贴图动画渲染一条龙</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <f>A36</f>
         <v>34</v>
       </c>
-      <c r="G30" s="7" t="str">
+      <c r="G30" s="6" t="str">
         <f>IF(NOT(ISBLANK(F30)),VLOOKUP(F30,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>既然没什么想问的了，那本次测试也就到此结束了</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7" t="str">
+      <c r="I30" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7" t="str">
+      <c r="G31" s="6" t="str">
         <f>IF(NOT(ISBLANK(F31)),VLOOKUP(F31,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7" t="str">
+      <c r="I31" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <f>A26</f>
         <v>24</v>
       </c>
-      <c r="G32" s="7" t="str">
+      <c r="G32" s="6" t="str">
         <f>IF(NOT(ISBLANK(F32)),VLOOKUP(F32,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>关于这个，你还有什么要问的？</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="I32" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7" t="str">
+      <c r="G33" s="6" t="str">
         <f>IF(NOT(ISBLANK(F33)),VLOOKUP(F33,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="I33" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11" t="str">
+      <c r="G34" s="8" t="str">
         <f>IF(NOT(ISBLANK(F34)),VLOOKUP(F34,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="I34" s="8" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="11" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10">
+      <c r="F35">
         <f>A26</f>
         <v>24</v>
       </c>
-      <c r="G35" s="11" t="str">
+      <c r="G35" s="8" t="str">
         <f>IF(NOT(ISBLANK(F35)),VLOOKUP(F35,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>关于这个，你还有什么要问的？</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="I35" s="8" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7" t="str">
+      <c r="G36" s="6" t="str">
         <f>IF(NOT(ISBLANK(F36)),VLOOKUP(F36,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="I36" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="7" t="str">
+      <c r="C37" s="6" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7" t="str">
+      <c r="G37" s="6" t="str">
         <f>IF(NOT(ISBLANK(F37)),VLOOKUP(F37,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="I37" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7" t="str">
+      <c r="G38" s="6" t="str">
         <f>IF(NOT(ISBLANK(F38)),VLOOKUP(F38,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="7" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="I38" s="6" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="8" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11" t="str">
+      <c r="G39" s="8" t="str">
         <f>IF(NOT(ISBLANK(F39)),VLOOKUP(F39,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J39" s="9"/>
+      <c r="I39" s="8" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Sheets/征兵广告.xlsx
+++ b/Sheets/征兵广告.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166DB40-D5B2-49F5-A86C-0012C330AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6C8A8-1AF7-405C-B34F-D248E09463E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
@@ -408,8 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -500,85 +499,14 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="characters"/>
-      <sheetName val="config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>名称</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>田所浩二</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>记者</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>你</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>旁白</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>王爷</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>奴才</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
+      <sheetName val="annotations"/>
       <sheetName val="functions"/>
       <sheetName val="config"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
             <v>id</v>
@@ -619,8 +547,24 @@
             <v>Log</v>
           </cell>
         </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Ii</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Interpolate</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -636,8 +580,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="6">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="5" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="5">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
@@ -648,14 +592,14 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="Note">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
@@ -936,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -995,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1006,7 +950,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J2" s="2"/>
@@ -1015,8 +959,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C3" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1033,8 +977,8 @@
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>我是田所浩二</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I3" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J3" s="2"/>
@@ -1046,8 +990,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C4" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1057,8 +1001,8 @@
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I4" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J4" s="2"/>
@@ -1070,8 +1014,8 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C5" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1081,8 +1025,8 @@
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I5" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J5" s="2"/>
@@ -1094,8 +1038,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C6" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1105,8 +1049,8 @@
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I6" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J6" s="2"/>
@@ -1118,8 +1062,8 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C7" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1129,8 +1073,8 @@
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I7" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I7" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="2"/>
@@ -1139,8 +1083,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C8" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1157,8 +1101,8 @@
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>24岁</v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I8" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J8" s="2"/>
@@ -1167,8 +1111,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C9" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1185,8 +1129,8 @@
         <f>IF(NOT(ISBLANK(F9)),VLOOKUP(F9,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>是学生</v>
       </c>
-      <c r="I9" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I9" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J9" s="2"/>
@@ -1195,8 +1139,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C10" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1213,8 +1157,8 @@
         <f>IF(NOT(ISBLANK(F10)),VLOOKUP(F10,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你怎么知道狗策划和他三个策划队友在招人？</v>
       </c>
-      <c r="I10" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I10" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J10" s="2"/>
@@ -1226,8 +1170,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C11" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1241,8 +1185,8 @@
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你还有什么想问的？</v>
       </c>
-      <c r="I11" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I11" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J11" s="2"/>
@@ -1254,8 +1198,8 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C12" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1269,8 +1213,8 @@
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你还有什么想问的？</v>
       </c>
-      <c r="I12" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I12" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J12" s="2"/>
@@ -1282,8 +1226,8 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C13" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1297,8 +1241,8 @@
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你今年多大了？</v>
       </c>
-      <c r="I13" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I13" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J13" s="2"/>
@@ -1310,8 +1254,8 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C14" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1321,8 +1265,8 @@
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I14" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J14" s="2"/>
@@ -1331,8 +1275,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C15" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1349,8 +1293,8 @@
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>谁问你了？</v>
       </c>
-      <c r="I15" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I15" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J15" s="2"/>
@@ -1362,8 +1306,8 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C16" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1373,8 +1317,8 @@
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I16" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I16" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J16" s="2"/>
@@ -1386,8 +1330,8 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C17" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1397,8 +1341,8 @@
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I17" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I17" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1409,8 +1353,8 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C18" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1420,8 +1364,8 @@
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I18" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I18" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1429,8 +1373,8 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C19" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1447,8 +1391,8 @@
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>你这狗策划靠谱吗</v>
       </c>
-      <c r="I19" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I19" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1459,8 +1403,8 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C20" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1470,8 +1414,8 @@
         <f>IF(NOT(ISBLANK(F20)),VLOOKUP(F20,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I20" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I20" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1482,8 +1426,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C21" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1493,8 +1437,8 @@
         <f>IF(NOT(ISBLANK(F21)),VLOOKUP(F21,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I21" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I21" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1505,8 +1449,8 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C22" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1516,8 +1460,8 @@
         <f>IF(NOT(ISBLANK(F22)),VLOOKUP(F22,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I22" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I22" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1528,8 +1472,8 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C23" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1539,8 +1483,8 @@
         <f>IF(NOT(ISBLANK(F23)),VLOOKUP(F23,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I23" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I23" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1551,8 +1495,8 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C24" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1562,8 +1506,8 @@
         <f>IF(NOT(ISBLANK(F24)),VLOOKUP(F24,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I24" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I24" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1574,8 +1518,8 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C25" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1585,8 +1529,8 @@
         <f>IF(NOT(ISBLANK(F25)),VLOOKUP(F25,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I25" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I25" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1597,8 +1541,8 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C26" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1608,8 +1552,8 @@
         <f>IF(NOT(ISBLANK(F26)),VLOOKUP(F26,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I26" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I26" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1620,8 +1564,8 @@
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C27" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1631,8 +1575,8 @@
         <f>IF(NOT(ISBLANK(F27)),VLOOKUP(F27,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I27" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I27" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1640,8 +1584,8 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="C28" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C28" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1658,8 +1602,8 @@
         <f>IF(NOT(ISBLANK(F28)),VLOOKUP(F28,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>不会，反正你把数位板和键盘干出火星子了都不给策划算学分</v>
       </c>
-      <c r="I28" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I28" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1667,8 +1611,8 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="C29" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C29" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1685,8 +1629,8 @@
         <f>IF(NOT(ISBLANK(F29)),VLOOKUP(F29,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>狗策划本人也会建模贴图动画渲染一条龙</v>
       </c>
-      <c r="I29" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I29" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1694,8 +1638,8 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="C30" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C30" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1712,8 +1656,8 @@
         <f>IF(NOT(ISBLANK(F30)),VLOOKUP(F30,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>既然没什么想问的了，那本次测试也就到此结束了</v>
       </c>
-      <c r="I30" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I30" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1724,8 +1668,8 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C31" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1735,8 +1679,8 @@
         <f>IF(NOT(ISBLANK(F31)),VLOOKUP(F31,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I31" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I31" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1747,8 +1691,8 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C32" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1762,8 +1706,8 @@
         <f>IF(NOT(ISBLANK(F32)),VLOOKUP(F32,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>关于这个，你还有什么要问的？</v>
       </c>
-      <c r="I32" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I32" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1774,8 +1718,8 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C33" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1785,8 +1729,8 @@
         <f>IF(NOT(ISBLANK(F33)),VLOOKUP(F33,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I33" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I33" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1797,8 +1741,8 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C34" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1808,8 +1752,8 @@
         <f>IF(NOT(ISBLANK(F34)),VLOOKUP(F34,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I34" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I34" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1820,8 +1764,8 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C35" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -1835,8 +1779,8 @@
         <f>IF(NOT(ISBLANK(F35)),VLOOKUP(F35,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>关于这个，你还有什么要问的？</v>
       </c>
-      <c r="I35" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I35" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1847,8 +1791,8 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C36" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1858,8 +1802,8 @@
         <f>IF(NOT(ISBLANK(F36)),VLOOKUP(F36,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I36" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I36" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1870,8 +1814,8 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C37" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>你</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -1881,8 +1825,8 @@
         <f>IF(NOT(ISBLANK(F37)),VLOOKUP(F37,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I37" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I37" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1893,8 +1837,8 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C38" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>田所浩二</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -1904,8 +1848,8 @@
         <f>IF(NOT(ISBLANK(F38)),VLOOKUP(F38,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I38" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I38" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1913,8 +1857,8 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
+      <c r="C39" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]!charactersTable[[#All],[id]:[名称]],2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1924,8 +1868,8 @@
         <f>IF(NOT(ISBLANK(F39)),VLOOKUP(F39,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I39" s="8" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I39" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
